--- a/Testing/Reports/Car-TCs.xlsx
+++ b/Testing/Reports/Car-TCs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basma\Desktop\Car-Bookings\Testing\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\QA-Project\Car-Bookings\Testing\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add Car" sheetId="1" r:id="rId1"/>
@@ -2805,28 +2805,28 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="73.140625" customWidth="1"/>
-    <col min="9" max="9" width="54.140625" style="74" customWidth="1"/>
-    <col min="10" max="10" width="60.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="73.109375" customWidth="1"/>
+    <col min="9" max="9" width="54.109375" style="74" customWidth="1"/>
+    <col min="10" max="10" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>61</v>
       </c>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -3270,7 +3270,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3278,7 +3278,7 @@
       <c r="E15" s="14"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -3286,7 +3286,7 @@
       <c r="E16" s="14"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3294,7 +3294,7 @@
       <c r="E17" s="14"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3302,7 +3302,7 @@
       <c r="E18" s="14"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3310,7 +3310,7 @@
       <c r="E19" s="14"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3318,7 +3318,7 @@
       <c r="E20" s="14"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3326,7 +3326,7 @@
       <c r="E21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3334,7 +3334,7 @@
       <c r="E22" s="14"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3342,7 +3342,7 @@
       <c r="E23" s="14"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3350,7 +3350,7 @@
       <c r="E24" s="14"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3358,7 +3358,7 @@
       <c r="E25" s="14"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -3366,7 +3366,7 @@
       <c r="E26" s="14"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -3374,7 +3374,7 @@
       <c r="E27" s="14"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -3382,7 +3382,7 @@
       <c r="E28" s="14"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -3390,7 +3390,7 @@
       <c r="E29" s="14"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -3398,7 +3398,7 @@
       <c r="E30" s="14"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -3406,7 +3406,7 @@
       <c r="E31" s="14"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -3414,7 +3414,7 @@
       <c r="E32" s="14"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -3422,7 +3422,7 @@
       <c r="E33" s="14"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -3430,7 +3430,7 @@
       <c r="E34" s="14"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -3438,7 +3438,7 @@
       <c r="E35" s="14"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -3446,7 +3446,7 @@
       <c r="E36" s="14"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -3454,7 +3454,7 @@
       <c r="E37" s="14"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -3462,7 +3462,7 @@
       <c r="E38" s="14"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -3470,7 +3470,7 @@
       <c r="E39" s="14"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -3478,7 +3478,7 @@
       <c r="E40" s="14"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -3486,7 +3486,7 @@
       <c r="E41" s="13"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -3494,7 +3494,7 @@
       <c r="E42" s="14"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -3502,7 +3502,7 @@
       <c r="E43" s="14"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -3510,7 +3510,7 @@
       <c r="E44" s="14"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -3518,7 +3518,7 @@
       <c r="E45" s="14"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -3526,7 +3526,7 @@
       <c r="E46" s="14"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -3534,7 +3534,7 @@
       <c r="E47" s="14"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -3542,7 +3542,7 @@
       <c r="E48" s="14"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="16"/>
@@ -3550,2869 +3550,2869 @@
       <c r="E49" s="14"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G105" s="15"/>
     </row>
-    <row r="106" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G110" s="15"/>
     </row>
-    <row r="111" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G119" s="15"/>
     </row>
-    <row r="120" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G122" s="15"/>
     </row>
-    <row r="123" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G123" s="15"/>
     </row>
-    <row r="124" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G125" s="15"/>
     </row>
-    <row r="126" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G126" s="15"/>
     </row>
-    <row r="127" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G127" s="15"/>
     </row>
-    <row r="128" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G128" s="15"/>
     </row>
-    <row r="129" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G129" s="15"/>
     </row>
-    <row r="130" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G130" s="15"/>
     </row>
-    <row r="131" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G131" s="15"/>
     </row>
-    <row r="132" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G143" s="15"/>
     </row>
-    <row r="144" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G144" s="15"/>
     </row>
-    <row r="145" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G145" s="15"/>
     </row>
-    <row r="146" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G146" s="15"/>
     </row>
-    <row r="147" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G147" s="15"/>
     </row>
-    <row r="148" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G148" s="15"/>
     </row>
-    <row r="149" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G149" s="15"/>
     </row>
-    <row r="150" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G150" s="15"/>
     </row>
-    <row r="151" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G152" s="15"/>
     </row>
-    <row r="153" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G153" s="15"/>
     </row>
-    <row r="154" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G154" s="15"/>
     </row>
-    <row r="155" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G155" s="15"/>
     </row>
-    <row r="156" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G156" s="15"/>
     </row>
-    <row r="157" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G157" s="15"/>
     </row>
-    <row r="158" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G158" s="15"/>
     </row>
-    <row r="159" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G159" s="15"/>
     </row>
-    <row r="160" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G161" s="15"/>
     </row>
-    <row r="162" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G162" s="15"/>
     </row>
-    <row r="163" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G163" s="15"/>
     </row>
-    <row r="164" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G164" s="15"/>
     </row>
-    <row r="165" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G165" s="15"/>
     </row>
-    <row r="166" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G166" s="15"/>
     </row>
-    <row r="167" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G167" s="15"/>
     </row>
-    <row r="168" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G168" s="15"/>
     </row>
-    <row r="169" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G170" s="15"/>
     </row>
-    <row r="171" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G176" s="15"/>
     </row>
-    <row r="177" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G177" s="15"/>
     </row>
-    <row r="178" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G179" s="15"/>
     </row>
-    <row r="180" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G180" s="15"/>
     </row>
-    <row r="181" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G186" s="15"/>
     </row>
-    <row r="187" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G188" s="15"/>
     </row>
-    <row r="189" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G189" s="15"/>
     </row>
-    <row r="190" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G194" s="15"/>
     </row>
-    <row r="195" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G215" s="15"/>
     </row>
-    <row r="216" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G230" s="15"/>
     </row>
-    <row r="231" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G233" s="15"/>
     </row>
-    <row r="234" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G434" s="15"/>
     </row>
-    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G435" s="15"/>
     </row>
-    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G436" s="15"/>
     </row>
-    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G437" s="15"/>
     </row>
-    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G438" s="15"/>
     </row>
-    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G439" s="15"/>
     </row>
-    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G440" s="15"/>
     </row>
-    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G441" s="15"/>
     </row>
-    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G442" s="15"/>
     </row>
-    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G443" s="15"/>
     </row>
-    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G444" s="15"/>
     </row>
-    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G445" s="15"/>
     </row>
-    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G446" s="15"/>
     </row>
-    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G447" s="15"/>
     </row>
-    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G448" s="15"/>
     </row>
-    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G449" s="15"/>
     </row>
-    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G450" s="15"/>
     </row>
-    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G451" s="15"/>
     </row>
-    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G452" s="15"/>
     </row>
-    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G453" s="15"/>
     </row>
-    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G454" s="15"/>
     </row>
-    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G455" s="15"/>
     </row>
-    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G456" s="15"/>
     </row>
-    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G457" s="15"/>
     </row>
-    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G458" s="15"/>
     </row>
-    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G459" s="15"/>
     </row>
-    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G460" s="15"/>
     </row>
-    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G461" s="15"/>
     </row>
-    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G462" s="15"/>
     </row>
-    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G463" s="15"/>
     </row>
-    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G464" s="15"/>
     </row>
-    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G465" s="15"/>
     </row>
-    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G466" s="15"/>
     </row>
-    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G467" s="15"/>
     </row>
-    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G468" s="15"/>
     </row>
-    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G469" s="15"/>
     </row>
-    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G470" s="15"/>
     </row>
-    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G471" s="15"/>
     </row>
-    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G472" s="15"/>
     </row>
-    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G473" s="15"/>
     </row>
-    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G474" s="15"/>
     </row>
-    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G475" s="15"/>
     </row>
-    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G476" s="15"/>
     </row>
-    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G477" s="15"/>
     </row>
-    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G478" s="15"/>
     </row>
-    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G479" s="15"/>
     </row>
-    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G480" s="15"/>
     </row>
-    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G481" s="15"/>
     </row>
-    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G482" s="15"/>
     </row>
-    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G483" s="15"/>
     </row>
-    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G484" s="15"/>
     </row>
-    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G485" s="15"/>
     </row>
-    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G486" s="15"/>
     </row>
-    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G487" s="15"/>
     </row>
-    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G488" s="15"/>
     </row>
-    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G489" s="15"/>
     </row>
-    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G490" s="15"/>
     </row>
-    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G491" s="15"/>
     </row>
-    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G492" s="15"/>
     </row>
-    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G493" s="15"/>
     </row>
-    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G494" s="15"/>
     </row>
-    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G495" s="15"/>
     </row>
-    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G496" s="15"/>
     </row>
-    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G497" s="15"/>
     </row>
-    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G498" s="15"/>
     </row>
-    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G499" s="15"/>
     </row>
-    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G500" s="15"/>
     </row>
-    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G501" s="15"/>
     </row>
-    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G502" s="15"/>
     </row>
-    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G503" s="15"/>
     </row>
-    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G504" s="15"/>
     </row>
-    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G505" s="15"/>
     </row>
-    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G506" s="15"/>
     </row>
-    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G507" s="15"/>
     </row>
-    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G508" s="15"/>
     </row>
-    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G509" s="15"/>
     </row>
-    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G510" s="15"/>
     </row>
-    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G511" s="15"/>
     </row>
-    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G512" s="15"/>
     </row>
-    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G513" s="15"/>
     </row>
-    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G514" s="15"/>
     </row>
-    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G515" s="15"/>
     </row>
-    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G516" s="15"/>
     </row>
-    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G517" s="15"/>
     </row>
-    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G518" s="15"/>
     </row>
-    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G519" s="15"/>
     </row>
-    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G520" s="15"/>
     </row>
-    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G521" s="15"/>
     </row>
-    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G522" s="15"/>
     </row>
-    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G523" s="15"/>
     </row>
-    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G524" s="15"/>
     </row>
-    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G525" s="15"/>
     </row>
-    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G526" s="15"/>
     </row>
-    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G527" s="15"/>
     </row>
-    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G528" s="15"/>
     </row>
-    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G529" s="15"/>
     </row>
-    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G530" s="15"/>
     </row>
-    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G531" s="15"/>
     </row>
-    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G532" s="15"/>
     </row>
-    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G533" s="15"/>
     </row>
-    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G534" s="15"/>
     </row>
-    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G535" s="15"/>
     </row>
-    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G536" s="15"/>
     </row>
-    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G537" s="15"/>
     </row>
-    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G538" s="15"/>
     </row>
-    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G539" s="15"/>
     </row>
-    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G540" s="15"/>
     </row>
-    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G541" s="15"/>
     </row>
-    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G542" s="15"/>
     </row>
-    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G543" s="15"/>
     </row>
-    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G544" s="15"/>
     </row>
-    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G545" s="15"/>
     </row>
-    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G546" s="15"/>
     </row>
-    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G547" s="15"/>
     </row>
-    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G548" s="15"/>
     </row>
-    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G549" s="15"/>
     </row>
-    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G550" s="15"/>
     </row>
-    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G551" s="15"/>
     </row>
-    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G552" s="15"/>
     </row>
-    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G553" s="15"/>
     </row>
-    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G554" s="15"/>
     </row>
-    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G555" s="15"/>
     </row>
-    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G556" s="15"/>
     </row>
-    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G557" s="15"/>
     </row>
-    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G558" s="15"/>
     </row>
-    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G559" s="15"/>
     </row>
-    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G560" s="15"/>
     </row>
-    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G561" s="15"/>
     </row>
-    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G562" s="15"/>
     </row>
-    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G563" s="15"/>
     </row>
-    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G564" s="15"/>
     </row>
-    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G565" s="15"/>
     </row>
-    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G566" s="15"/>
     </row>
-    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G567" s="15"/>
     </row>
-    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G568" s="15"/>
     </row>
-    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G569" s="15"/>
     </row>
-    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G570" s="15"/>
     </row>
-    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G571" s="15"/>
     </row>
-    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G572" s="15"/>
     </row>
-    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G573" s="15"/>
     </row>
-    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G574" s="15"/>
     </row>
-    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G575" s="15"/>
     </row>
-    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G576" s="15"/>
     </row>
-    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G577" s="15"/>
     </row>
-    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G578" s="15"/>
     </row>
-    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G579" s="15"/>
     </row>
-    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G580" s="15"/>
     </row>
-    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G581" s="15"/>
     </row>
-    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G582" s="15"/>
     </row>
-    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G583" s="15"/>
     </row>
-    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G584" s="15"/>
     </row>
-    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G585" s="15"/>
     </row>
-    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G586" s="15"/>
     </row>
-    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G587" s="15"/>
     </row>
-    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G588" s="15"/>
     </row>
-    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G589" s="15"/>
     </row>
-    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G590" s="15"/>
     </row>
-    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G591" s="15"/>
     </row>
-    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G592" s="15"/>
     </row>
-    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G593" s="15"/>
     </row>
-    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G594" s="15"/>
     </row>
-    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G595" s="15"/>
     </row>
-    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G596" s="15"/>
     </row>
-    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G597" s="15"/>
     </row>
-    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G598" s="15"/>
     </row>
-    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G599" s="15"/>
     </row>
-    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G600" s="15"/>
     </row>
-    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G601" s="15"/>
     </row>
-    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G602" s="15"/>
     </row>
-    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G603" s="15"/>
     </row>
-    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G604" s="15"/>
     </row>
-    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G605" s="15"/>
     </row>
-    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G606" s="15"/>
     </row>
-    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G607" s="15"/>
     </row>
-    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G608" s="15"/>
     </row>
-    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G609" s="15"/>
     </row>
-    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G610" s="15"/>
     </row>
-    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G611" s="15"/>
     </row>
-    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G612" s="15"/>
     </row>
-    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G613" s="15"/>
     </row>
-    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G614" s="15"/>
     </row>
-    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G615" s="15"/>
     </row>
-    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G616" s="15"/>
     </row>
-    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G617" s="15"/>
     </row>
-    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G618" s="15"/>
     </row>
-    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G619" s="15"/>
     </row>
-    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G620" s="15"/>
     </row>
-    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G621" s="15"/>
     </row>
-    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G622" s="15"/>
     </row>
-    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G623" s="15"/>
     </row>
-    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G624" s="15"/>
     </row>
-    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G625" s="15"/>
     </row>
-    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G626" s="15"/>
     </row>
-    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G627" s="15"/>
     </row>
-    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G628" s="15"/>
     </row>
-    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G629" s="15"/>
     </row>
-    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G630" s="15"/>
     </row>
-    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G631" s="15"/>
     </row>
-    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G632" s="15"/>
     </row>
-    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G633" s="15"/>
     </row>
-    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G634" s="15"/>
     </row>
-    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G635" s="15"/>
     </row>
-    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G636" s="15"/>
     </row>
-    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G637" s="15"/>
     </row>
-    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G638" s="15"/>
     </row>
-    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G639" s="15"/>
     </row>
-    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G640" s="15"/>
     </row>
-    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G641" s="15"/>
     </row>
-    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G642" s="15"/>
     </row>
-    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G643" s="15"/>
     </row>
-    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G644" s="15"/>
     </row>
-    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G645" s="15"/>
     </row>
-    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G646" s="15"/>
     </row>
-    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G647" s="15"/>
     </row>
-    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G648" s="15"/>
     </row>
-    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G649" s="15"/>
     </row>
-    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G650" s="15"/>
     </row>
-    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G651" s="15"/>
     </row>
-    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G652" s="15"/>
     </row>
-    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G653" s="15"/>
     </row>
-    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G654" s="15"/>
     </row>
-    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G655" s="15"/>
     </row>
-    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G656" s="15"/>
     </row>
-    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G657" s="15"/>
     </row>
-    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G658" s="15"/>
     </row>
-    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G659" s="15"/>
     </row>
-    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G660" s="15"/>
     </row>
-    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G661" s="15"/>
     </row>
-    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G662" s="15"/>
     </row>
-    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G663" s="15"/>
     </row>
-    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G664" s="15"/>
     </row>
-    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G665" s="15"/>
     </row>
-    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G666" s="15"/>
     </row>
-    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G667" s="15"/>
     </row>
-    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G668" s="15"/>
     </row>
-    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G669" s="15"/>
     </row>
-    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G670" s="15"/>
     </row>
-    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G671" s="15"/>
     </row>
-    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G672" s="15"/>
     </row>
-    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G673" s="15"/>
     </row>
-    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G674" s="15"/>
     </row>
-    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G675" s="15"/>
     </row>
-    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G676" s="15"/>
     </row>
-    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G677" s="15"/>
     </row>
-    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G678" s="15"/>
     </row>
-    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G679" s="15"/>
     </row>
-    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G680" s="15"/>
     </row>
-    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G681" s="15"/>
     </row>
-    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G682" s="15"/>
     </row>
-    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G683" s="15"/>
     </row>
-    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G684" s="15"/>
     </row>
-    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G685" s="15"/>
     </row>
-    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G686" s="15"/>
     </row>
-    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G687" s="15"/>
     </row>
-    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G688" s="15"/>
     </row>
-    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G689" s="15"/>
     </row>
-    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G690" s="15"/>
     </row>
-    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G691" s="15"/>
     </row>
-    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G692" s="15"/>
     </row>
-    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G693" s="15"/>
     </row>
-    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G694" s="15"/>
     </row>
-    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G695" s="15"/>
     </row>
-    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G696" s="15"/>
     </row>
-    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G697" s="15"/>
     </row>
-    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G698" s="15"/>
     </row>
-    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G699" s="15"/>
     </row>
-    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G700" s="15"/>
     </row>
-    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G701" s="15"/>
     </row>
-    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G702" s="15"/>
     </row>
-    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G703" s="15"/>
     </row>
-    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G704" s="15"/>
     </row>
-    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G705" s="15"/>
     </row>
-    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G706" s="15"/>
     </row>
-    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G707" s="15"/>
     </row>
-    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G708" s="15"/>
     </row>
-    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G709" s="15"/>
     </row>
-    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G710" s="15"/>
     </row>
-    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G711" s="15"/>
     </row>
-    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G712" s="15"/>
     </row>
-    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G713" s="15"/>
     </row>
-    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G714" s="15"/>
     </row>
-    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G715" s="15"/>
     </row>
-    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G716" s="15"/>
     </row>
-    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G717" s="15"/>
     </row>
-    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G718" s="15"/>
     </row>
-    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G719" s="15"/>
     </row>
-    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G720" s="15"/>
     </row>
-    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G721" s="15"/>
     </row>
-    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G722" s="15"/>
     </row>
-    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G723" s="15"/>
     </row>
-    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G724" s="15"/>
     </row>
-    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G725" s="15"/>
     </row>
-    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G726" s="15"/>
     </row>
-    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G727" s="15"/>
     </row>
-    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G728" s="15"/>
     </row>
-    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G729" s="15"/>
     </row>
-    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G730" s="15"/>
     </row>
-    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G731" s="15"/>
     </row>
-    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G732" s="15"/>
     </row>
-    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G733" s="15"/>
     </row>
-    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G734" s="15"/>
     </row>
-    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G735" s="15"/>
     </row>
-    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G736" s="15"/>
     </row>
-    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G737" s="15"/>
     </row>
-    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G738" s="15"/>
     </row>
-    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G739" s="15"/>
     </row>
-    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G740" s="15"/>
     </row>
-    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G741" s="15"/>
     </row>
-    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G742" s="15"/>
     </row>
-    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G743" s="15"/>
     </row>
-    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G744" s="15"/>
     </row>
-    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G745" s="15"/>
     </row>
-    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G746" s="15"/>
     </row>
-    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G747" s="15"/>
     </row>
-    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G748" s="15"/>
     </row>
-    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G749" s="15"/>
     </row>
-    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G750" s="15"/>
     </row>
-    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G751" s="15"/>
     </row>
-    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G752" s="15"/>
     </row>
-    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G753" s="15"/>
     </row>
-    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G754" s="15"/>
     </row>
-    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G755" s="15"/>
     </row>
-    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G756" s="15"/>
     </row>
-    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G757" s="15"/>
     </row>
-    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G758" s="15"/>
     </row>
-    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G759" s="15"/>
     </row>
-    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G760" s="15"/>
     </row>
-    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G761" s="15"/>
     </row>
-    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G762" s="15"/>
     </row>
-    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G763" s="15"/>
     </row>
-    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G764" s="15"/>
     </row>
-    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G765" s="15"/>
     </row>
-    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G766" s="15"/>
     </row>
-    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G767" s="15"/>
     </row>
-    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G768" s="15"/>
     </row>
-    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G769" s="15"/>
     </row>
-    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G770" s="15"/>
     </row>
-    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G771" s="15"/>
     </row>
-    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G772" s="15"/>
     </row>
-    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G773" s="15"/>
     </row>
-    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G774" s="15"/>
     </row>
-    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G775" s="15"/>
     </row>
-    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G776" s="15"/>
     </row>
-    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G777" s="15"/>
     </row>
-    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G778" s="15"/>
     </row>
-    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G779" s="15"/>
     </row>
-    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G780" s="15"/>
     </row>
-    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G781" s="15"/>
     </row>
-    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G782" s="15"/>
     </row>
-    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G783" s="15"/>
     </row>
-    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G784" s="15"/>
     </row>
-    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G785" s="15"/>
     </row>
-    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G786" s="15"/>
     </row>
-    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G787" s="15"/>
     </row>
-    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G788" s="15"/>
     </row>
-    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G789" s="15"/>
     </row>
-    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G790" s="15"/>
     </row>
-    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G791" s="15"/>
     </row>
-    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G792" s="15"/>
     </row>
-    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G793" s="15"/>
     </row>
-    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G794" s="15"/>
     </row>
-    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G795" s="15"/>
     </row>
-    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G796" s="15"/>
     </row>
-    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G797" s="15"/>
     </row>
-    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G798" s="15"/>
     </row>
-    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G799" s="15"/>
     </row>
-    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G800" s="15"/>
     </row>
-    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G801" s="15"/>
     </row>
-    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G802" s="15"/>
     </row>
-    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G803" s="15"/>
     </row>
-    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G804" s="15"/>
     </row>
-    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G805" s="15"/>
     </row>
-    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G806" s="15"/>
     </row>
-    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G807" s="15"/>
     </row>
-    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G808" s="15"/>
     </row>
-    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G809" s="15"/>
     </row>
-    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G810" s="15"/>
     </row>
-    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G811" s="15"/>
     </row>
-    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G812" s="15"/>
     </row>
-    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G813" s="15"/>
     </row>
-    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G814" s="15"/>
     </row>
-    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G815" s="15"/>
     </row>
-    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G816" s="15"/>
     </row>
-    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G817" s="15"/>
     </row>
-    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G818" s="15"/>
     </row>
-    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G819" s="15"/>
     </row>
-    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G820" s="15"/>
     </row>
-    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G821" s="15"/>
     </row>
-    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G822" s="15"/>
     </row>
-    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G823" s="15"/>
     </row>
-    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G824" s="15"/>
     </row>
-    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G825" s="15"/>
     </row>
-    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G826" s="15"/>
     </row>
-    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G827" s="15"/>
     </row>
-    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G828" s="15"/>
     </row>
-    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G829" s="15"/>
     </row>
-    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G830" s="15"/>
     </row>
-    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G831" s="15"/>
     </row>
-    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G832" s="15"/>
     </row>
-    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G833" s="15"/>
     </row>
-    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G834" s="15"/>
     </row>
-    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G835" s="15"/>
     </row>
-    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G836" s="15"/>
     </row>
-    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G837" s="15"/>
     </row>
-    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G838" s="15"/>
     </row>
-    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G839" s="15"/>
     </row>
-    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G840" s="15"/>
     </row>
-    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G841" s="15"/>
     </row>
-    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G842" s="15"/>
     </row>
-    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G843" s="15"/>
     </row>
-    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G844" s="15"/>
     </row>
-    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G845" s="15"/>
     </row>
-    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G846" s="15"/>
     </row>
-    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G847" s="15"/>
     </row>
-    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G848" s="15"/>
     </row>
-    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G849" s="15"/>
     </row>
-    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G850" s="15"/>
     </row>
-    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G851" s="15"/>
     </row>
-    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G852" s="15"/>
     </row>
-    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G853" s="15"/>
     </row>
-    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G854" s="15"/>
     </row>
-    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G855" s="15"/>
     </row>
-    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G856" s="15"/>
     </row>
-    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G857" s="15"/>
     </row>
-    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G858" s="15"/>
     </row>
-    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G859" s="15"/>
     </row>
-    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G860" s="15"/>
     </row>
-    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G861" s="15"/>
     </row>
-    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G862" s="15"/>
     </row>
-    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G863" s="15"/>
     </row>
-    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G864" s="15"/>
     </row>
-    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G865" s="15"/>
     </row>
-    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G866" s="15"/>
     </row>
-    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G867" s="15"/>
     </row>
-    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G868" s="15"/>
     </row>
-    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G869" s="15"/>
     </row>
-    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G870" s="15"/>
     </row>
-    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G871" s="15"/>
     </row>
-    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G872" s="15"/>
     </row>
-    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G873" s="15"/>
     </row>
-    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G874" s="15"/>
     </row>
-    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G875" s="15"/>
     </row>
-    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G876" s="15"/>
     </row>
-    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G877" s="15"/>
     </row>
-    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G878" s="15"/>
     </row>
-    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G879" s="15"/>
     </row>
-    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G880" s="15"/>
     </row>
-    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G881" s="15"/>
     </row>
-    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G882" s="15"/>
     </row>
-    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G883" s="15"/>
     </row>
-    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G884" s="15"/>
     </row>
-    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G885" s="15"/>
     </row>
-    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G886" s="15"/>
     </row>
-    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G887" s="15"/>
     </row>
-    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G888" s="15"/>
     </row>
-    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G889" s="15"/>
     </row>
-    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G890" s="15"/>
     </row>
-    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G891" s="15"/>
     </row>
-    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G892" s="15"/>
     </row>
-    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G893" s="15"/>
     </row>
-    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G894" s="15"/>
     </row>
-    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G895" s="15"/>
     </row>
-    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G896" s="15"/>
     </row>
-    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G897" s="15"/>
     </row>
-    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G898" s="15"/>
     </row>
-    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G899" s="15"/>
     </row>
-    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G900" s="15"/>
     </row>
-    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G901" s="15"/>
     </row>
-    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G902" s="15"/>
     </row>
-    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G903" s="15"/>
     </row>
-    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G904" s="15"/>
     </row>
-    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G905" s="15"/>
     </row>
-    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G906" s="15"/>
     </row>
-    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G907" s="15"/>
     </row>
-    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G908" s="15"/>
     </row>
-    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G909" s="15"/>
     </row>
-    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G910" s="15"/>
     </row>
-    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G911" s="15"/>
     </row>
-    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G912" s="15"/>
     </row>
-    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G913" s="15"/>
     </row>
-    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G914" s="15"/>
     </row>
-    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G915" s="15"/>
     </row>
-    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G916" s="15"/>
     </row>
-    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G917" s="15"/>
     </row>
-    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G918" s="15"/>
     </row>
-    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G919" s="15"/>
     </row>
-    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G920" s="15"/>
     </row>
-    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G921" s="15"/>
     </row>
-    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G922" s="15"/>
     </row>
-    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G923" s="15"/>
     </row>
-    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G924" s="15"/>
     </row>
-    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G925" s="15"/>
     </row>
-    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G926" s="15"/>
     </row>
-    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G927" s="15"/>
     </row>
-    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G928" s="15"/>
     </row>
-    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G929" s="15"/>
     </row>
-    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G930" s="15"/>
     </row>
-    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G931" s="15"/>
     </row>
-    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G932" s="15"/>
     </row>
-    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G933" s="15"/>
     </row>
-    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G934" s="15"/>
     </row>
-    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G935" s="15"/>
     </row>
-    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G936" s="15"/>
     </row>
-    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G937" s="15"/>
     </row>
-    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G938" s="15"/>
     </row>
-    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G939" s="15"/>
     </row>
-    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G940" s="15"/>
     </row>
-    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G941" s="15"/>
     </row>
-    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G942" s="15"/>
     </row>
-    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G943" s="15"/>
     </row>
-    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G944" s="15"/>
     </row>
-    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G945" s="15"/>
     </row>
-    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G946" s="15"/>
     </row>
-    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G947" s="15"/>
     </row>
-    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G948" s="15"/>
     </row>
-    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G949" s="15"/>
     </row>
-    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G950" s="15"/>
     </row>
-    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G951" s="15"/>
     </row>
-    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G952" s="15"/>
     </row>
-    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G953" s="15"/>
     </row>
-    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G954" s="15"/>
     </row>
-    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G955" s="15"/>
     </row>
-    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G956" s="15"/>
     </row>
-    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G957" s="15"/>
     </row>
-    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G958" s="15"/>
     </row>
-    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G959" s="15"/>
     </row>
-    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G960" s="15"/>
     </row>
-    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G961" s="15"/>
     </row>
-    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G962" s="15"/>
     </row>
-    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G963" s="15"/>
     </row>
-    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G964" s="15"/>
     </row>
-    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G965" s="15"/>
     </row>
-    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G966" s="15"/>
     </row>
-    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G967" s="15"/>
     </row>
-    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G968" s="15"/>
     </row>
-    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G969" s="15"/>
     </row>
-    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G970" s="15"/>
     </row>
-    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G971" s="15"/>
     </row>
-    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G972" s="15"/>
     </row>
-    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G973" s="15"/>
     </row>
-    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G974" s="15"/>
     </row>
-    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G975" s="15"/>
     </row>
-    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G976" s="15"/>
     </row>
-    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G977" s="15"/>
     </row>
-    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G978" s="15"/>
     </row>
-    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G979" s="15"/>
     </row>
-    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G980" s="15"/>
     </row>
-    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G981" s="15"/>
     </row>
-    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G982" s="15"/>
     </row>
-    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G983" s="15"/>
     </row>
-    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G984" s="15"/>
     </row>
-    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G985" s="15"/>
     </row>
-    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G986" s="15"/>
     </row>
-    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G987" s="15"/>
     </row>
-    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G988" s="15"/>
     </row>
-    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G989" s="15"/>
     </row>
-    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G990" s="15"/>
     </row>
-    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G991" s="15"/>
     </row>
-    <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G992" s="15"/>
     </row>
-    <row r="993" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G993" s="15"/>
     </row>
-    <row r="994" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G994" s="15"/>
     </row>
-    <row r="995" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G995" s="15"/>
     </row>
-    <row r="996" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G996" s="15"/>
     </row>
-    <row r="997" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G997" s="15"/>
     </row>
-    <row r="998" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G998" s="15"/>
     </row>
-    <row r="999" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G999" s="15"/>
     </row>
-    <row r="1000" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1000" s="15"/>
     </row>
-    <row r="1001" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1001" s="15"/>
     </row>
-    <row r="1002" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1002" s="15"/>
     </row>
-    <row r="1003" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1003" s="15"/>
     </row>
-    <row r="1004" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1004" s="15"/>
     </row>
   </sheetData>
@@ -6427,30 +6427,30 @@
   </sheetPr>
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="71" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="71" customWidth="1"/>
     <col min="2" max="2" width="21" style="71" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
     <col min="4" max="4" width="18" style="71" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="72" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="33.109375" customWidth="1"/>
+    <col min="12" max="12" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="83.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>65</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>68</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="K3" s="66"/>
       <c r="L3" s="66"/>
     </row>
-    <row r="4" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>69</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>70</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>72</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>74</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:27" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>77</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>78</v>
       </c>
@@ -6792,7 +6792,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>79</v>
       </c>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
         <v>321</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>327</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>332</v>
       </c>
@@ -6930,7 +6930,7 @@
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>335</v>
       </c>
@@ -6964,7 +6964,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
         <v>340</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>344</v>
       </c>
@@ -7032,7 +7032,7 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>346</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>348</v>
       </c>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>353</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="K19" s="66"/>
       <c r="L19" s="66"/>
     </row>
-    <row r="20" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
         <v>357</v>
       </c>
@@ -7170,7 +7170,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
         <v>360</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="s">
         <v>363</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
         <v>366</v>
       </c>
@@ -7272,7 +7272,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>369</v>
       </c>
@@ -7321,21 +7321,23 @@
   </sheetPr>
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -7383,7 +7385,7 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>80</v>
       </c>
@@ -7413,7 +7415,7 @@
       </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>88</v>
       </c>
@@ -7441,7 +7443,7 @@
       </c>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>95</v>
       </c>
@@ -7469,7 +7471,7 @@
       </c>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -7481,7 +7483,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -7493,7 +7495,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -7505,7 +7507,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -7517,7 +7519,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -7529,7 +7531,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -7541,7 +7543,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -7553,7 +7555,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -7565,7 +7567,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -7577,7 +7579,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -7589,7 +7591,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -7601,7 +7603,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -7613,7 +7615,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -7625,7 +7627,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -7637,7 +7639,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -7649,7 +7651,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -7661,7 +7663,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -7673,7 +7675,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -7685,7 +7687,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -7697,7 +7699,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -7709,7 +7711,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -7721,7 +7723,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -7733,7 +7735,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -7745,7 +7747,7 @@
       <c r="I27" s="28"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -7757,7 +7759,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -7769,7 +7771,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -7781,7 +7783,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -7793,7 +7795,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -7805,7 +7807,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -7817,7 +7819,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -7828,7 +7830,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -7839,7 +7841,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -7850,7 +7852,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -7861,7 +7863,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -7872,7 +7874,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -7883,7 +7885,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -7894,7 +7896,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -7905,7 +7907,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -7916,7 +7918,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -7927,7 +7929,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -7938,7 +7940,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -7949,7 +7951,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -7960,7 +7962,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -7971,7 +7973,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -7982,7 +7984,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -7993,7 +7995,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8004,7 +8006,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8015,7 +8017,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8026,7 +8028,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8037,7 +8039,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8048,7 +8050,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8059,7 +8061,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8070,7 +8072,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8081,7 +8083,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8092,7 +8094,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8103,7 +8105,7 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8114,7 +8116,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8125,7 +8127,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8136,7 +8138,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8147,7 +8149,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8158,7 +8160,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8169,7 +8171,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8180,7 +8182,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -8191,7 +8193,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8202,7 +8204,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8213,7 +8215,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -8224,7 +8226,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -8235,7 +8237,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -8246,7 +8248,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -8257,7 +8259,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -8268,7 +8270,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -8279,7 +8281,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
     </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -8290,7 +8292,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -8301,7 +8303,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -8312,7 +8314,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -8323,7 +8325,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -8334,7 +8336,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -8345,7 +8347,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -8356,7 +8358,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -8367,7 +8369,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -8378,7 +8380,7 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -8389,7 +8391,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -8400,7 +8402,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -8411,7 +8413,7 @@
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -8422,7 +8424,7 @@
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -8433,7 +8435,7 @@
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -8444,7 +8446,7 @@
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -8455,7 +8457,7 @@
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -8466,7 +8468,7 @@
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -8477,7 +8479,7 @@
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -8488,7 +8490,7 @@
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -8499,7 +8501,7 @@
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -8510,7 +8512,7 @@
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -8521,7 +8523,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -8532,7 +8534,7 @@
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -8543,7 +8545,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -8569,21 +8571,23 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -8631,7 +8635,7 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>101</v>
       </c>
@@ -8661,7 +8665,7 @@
       </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>108</v>
       </c>
@@ -8689,7 +8693,7 @@
       </c>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
@@ -8717,7 +8721,7 @@
       </c>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>120</v>
       </c>
@@ -8745,7 +8749,7 @@
       </c>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>125</v>
       </c>
@@ -8790,22 +8794,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>131</v>
       </c>
@@ -8879,7 +8883,7 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>142</v>
       </c>
@@ -8912,7 +8916,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>146</v>
       </c>
@@ -8947,7 +8951,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="78" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>151</v>
       </c>
@@ -8982,7 +8986,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="78" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>155</v>
       </c>
@@ -9017,7 +9021,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="78" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>159</v>
       </c>
@@ -9052,7 +9056,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>162</v>
       </c>
@@ -9087,7 +9091,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>166</v>
       </c>
@@ -9122,7 +9126,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="156" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>170</v>
       </c>
@@ -9157,7 +9161,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>176</v>
       </c>
@@ -9192,7 +9196,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>180</v>
       </c>
@@ -9227,7 +9231,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>184</v>
       </c>
@@ -9262,7 +9266,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>189</v>
       </c>
@@ -9297,7 +9301,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="126" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>193</v>
       </c>
@@ -9334,7 +9338,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>199</v>
       </c>
@@ -9369,7 +9373,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>203</v>
       </c>
@@ -9404,7 +9408,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="78" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>207</v>
       </c>
@@ -9439,7 +9443,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>212</v>
       </c>
@@ -9474,7 +9478,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45"/>
@@ -9491,7 +9495,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
       <c r="C21" s="45"/>
@@ -9508,7 +9512,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
       <c r="C22" s="45"/>
@@ -9525,7 +9529,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -9542,7 +9546,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -9559,7 +9563,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -9576,7 +9580,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -9593,7 +9597,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -9610,7 +9614,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -9627,7 +9631,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -9644,7 +9648,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9661,7 +9665,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -9678,7 +9682,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -9707,22 +9711,24 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -9757,7 +9763,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>218</v>
       </c>
@@ -9788,7 +9794,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>225</v>
       </c>
@@ -9819,7 +9825,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>232</v>
       </c>
@@ -9850,7 +9856,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>238</v>
       </c>
@@ -9881,7 +9887,7 @@
       <c r="J5" s="57"/>
       <c r="K5" s="58"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>242</v>
       </c>
@@ -9912,7 +9918,7 @@
       <c r="J6" s="57"/>
       <c r="K6" s="58"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>247</v>
       </c>
@@ -9943,7 +9949,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="58"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>252</v>
       </c>
@@ -9974,7 +9980,7 @@
       <c r="J8" s="57"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>256</v>
       </c>
@@ -10005,7 +10011,7 @@
       <c r="J9" s="57"/>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>261</v>
       </c>
@@ -10036,7 +10042,7 @@
       <c r="J10" s="57"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>266</v>
       </c>
@@ -10067,7 +10073,7 @@
       <c r="J11" s="57"/>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
         <v>270</v>
       </c>
@@ -10098,7 +10104,7 @@
       <c r="J12" s="57"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>274</v>
       </c>
@@ -10129,7 +10135,7 @@
       <c r="J13" s="57"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>278</v>
       </c>
@@ -10162,7 +10168,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>285</v>
       </c>
@@ -10193,2959 +10199,2959 @@
       <c r="J15" s="61"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
     </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
     </row>
-    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
     </row>
-    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="63"/>
     </row>
-    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
     </row>
-    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
     </row>
-    <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
     </row>
-    <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
     </row>
-    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
     </row>
-    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
     </row>
-    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
     </row>
-    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
     </row>
-    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
     </row>
-    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
     </row>
-    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
     </row>
-    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
     </row>
-    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
     </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
     </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
     </row>
-    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
     </row>
-    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
     </row>
-    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
     </row>
-    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
     </row>
-    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
     </row>
-    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
     </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
     </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
     </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
     </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
     </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
     </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
     </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
     </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
     </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="63"/>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="63"/>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="63"/>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="63"/>
     </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="63"/>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="63"/>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="63"/>
     </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="63"/>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="63"/>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="63"/>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="63"/>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="63"/>
     </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="63"/>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="63"/>
     </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="63"/>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="63"/>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="63"/>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="63"/>
     </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="63"/>
     </row>
-    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="63"/>
     </row>
-    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="63"/>
     </row>
-    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="63"/>
     </row>
-    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="63"/>
     </row>
-    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="63"/>
     </row>
-    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="63"/>
     </row>
-    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="63"/>
     </row>
-    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="63"/>
     </row>
-    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="63"/>
     </row>
-    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="63"/>
     </row>
-    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="63"/>
     </row>
-    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="63"/>
     </row>
-    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="63"/>
     </row>
-    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="63"/>
     </row>
-    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="63"/>
     </row>
-    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="63"/>
     </row>
-    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="63"/>
     </row>
-    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="63"/>
     </row>
-    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="63"/>
     </row>
-    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="63"/>
     </row>
-    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="63"/>
     </row>
-    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="63"/>
     </row>
-    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="63"/>
     </row>
-    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="63"/>
     </row>
-    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="63"/>
     </row>
-    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="63"/>
     </row>
-    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="63"/>
     </row>
-    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="63"/>
     </row>
-    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="63"/>
     </row>
-    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="63"/>
     </row>
-    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="63"/>
     </row>
-    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="63"/>
     </row>
-    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="63"/>
     </row>
-    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="63"/>
     </row>
-    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="63"/>
     </row>
-    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="63"/>
     </row>
-    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="63"/>
     </row>
-    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="63"/>
     </row>
-    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="63"/>
     </row>
-    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="63"/>
     </row>
-    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="63"/>
     </row>
-    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="63"/>
     </row>
-    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="63"/>
     </row>
-    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="63"/>
     </row>
-    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="63"/>
     </row>
-    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="63"/>
     </row>
-    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="63"/>
     </row>
-    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="63"/>
     </row>
-    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="63"/>
     </row>
-    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="63"/>
     </row>
-    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="63"/>
     </row>
-    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="63"/>
     </row>
-    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="63"/>
     </row>
-    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="63"/>
     </row>
-    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="63"/>
     </row>
-    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="63"/>
     </row>
-    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="63"/>
     </row>
-    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="63"/>
     </row>
-    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="63"/>
     </row>
-    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="63"/>
     </row>
-    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="63"/>
     </row>
-    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="63"/>
     </row>
-    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="63"/>
     </row>
-    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="63"/>
     </row>
-    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="63"/>
     </row>
-    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="63"/>
     </row>
-    <row r="149" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="63"/>
     </row>
-    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="63"/>
     </row>
-    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="63"/>
     </row>
-    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="63"/>
     </row>
-    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="63"/>
     </row>
-    <row r="154" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="63"/>
     </row>
-    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="63"/>
     </row>
-    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="63"/>
     </row>
-    <row r="157" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="63"/>
     </row>
-    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="63"/>
     </row>
-    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="63"/>
     </row>
-    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="63"/>
     </row>
-    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="63"/>
     </row>
-    <row r="162" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="63"/>
     </row>
-    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="63"/>
     </row>
-    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="63"/>
     </row>
-    <row r="165" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="63"/>
     </row>
-    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="63"/>
     </row>
-    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="63"/>
     </row>
-    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="63"/>
     </row>
-    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="63"/>
     </row>
-    <row r="170" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="63"/>
     </row>
-    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="63"/>
     </row>
-    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="63"/>
     </row>
-    <row r="173" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="63"/>
     </row>
-    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="63"/>
     </row>
-    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="63"/>
     </row>
-    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="63"/>
     </row>
-    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="63"/>
     </row>
-    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="63"/>
     </row>
-    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="63"/>
     </row>
-    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="63"/>
     </row>
-    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="63"/>
     </row>
-    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="63"/>
     </row>
-    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="63"/>
     </row>
-    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="63"/>
     </row>
-    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="63"/>
     </row>
-    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="63"/>
     </row>
-    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="63"/>
     </row>
-    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="63"/>
     </row>
-    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="63"/>
     </row>
-    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="63"/>
     </row>
-    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="63"/>
     </row>
-    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="63"/>
     </row>
-    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="63"/>
     </row>
-    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="63"/>
     </row>
-    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="63"/>
     </row>
-    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="63"/>
     </row>
-    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="63"/>
     </row>
-    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="63"/>
     </row>
-    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="63"/>
     </row>
-    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="63"/>
     </row>
-    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="63"/>
     </row>
-    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="63"/>
     </row>
-    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="63"/>
     </row>
-    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="63"/>
     </row>
-    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="63"/>
     </row>
-    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="63"/>
     </row>
-    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="63"/>
     </row>
-    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="63"/>
     </row>
-    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="63"/>
     </row>
-    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="63"/>
     </row>
-    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="63"/>
     </row>
-    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="63"/>
     </row>
-    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="63"/>
     </row>
-    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="63"/>
     </row>
-    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="63"/>
     </row>
-    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="63"/>
     </row>
-    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="63"/>
     </row>
-    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="63"/>
     </row>
-    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="63"/>
     </row>
-    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="63"/>
     </row>
-    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="63"/>
     </row>
-    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="63"/>
     </row>
-    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="63"/>
     </row>
-    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="63"/>
     </row>
-    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="63"/>
     </row>
-    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="63"/>
     </row>
-    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="63"/>
     </row>
-    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="63"/>
     </row>
-    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="63"/>
     </row>
-    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="63"/>
     </row>
-    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="63"/>
     </row>
-    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="63"/>
     </row>
-    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="63"/>
     </row>
-    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="63"/>
     </row>
-    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="63"/>
     </row>
-    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="63"/>
     </row>
-    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="63"/>
     </row>
-    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="63"/>
     </row>
-    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="63"/>
     </row>
-    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="63"/>
     </row>
-    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="63"/>
     </row>
-    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="63"/>
     </row>
-    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="63"/>
     </row>
-    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="63"/>
     </row>
-    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="63"/>
     </row>
-    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="63"/>
     </row>
-    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="63"/>
     </row>
-    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="63"/>
     </row>
-    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="63"/>
     </row>
-    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="63"/>
     </row>
-    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="63"/>
     </row>
-    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="63"/>
     </row>
-    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="63"/>
     </row>
-    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="63"/>
     </row>
-    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="63"/>
     </row>
-    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="63"/>
     </row>
-    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="63"/>
     </row>
-    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="63"/>
     </row>
-    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="63"/>
     </row>
-    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="63"/>
     </row>
-    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="63"/>
     </row>
-    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="63"/>
     </row>
-    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="63"/>
     </row>
-    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="63"/>
     </row>
-    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="63"/>
     </row>
-    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="63"/>
     </row>
-    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="63"/>
     </row>
-    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="63"/>
     </row>
-    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="63"/>
     </row>
-    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="63"/>
     </row>
-    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="63"/>
     </row>
-    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="63"/>
     </row>
-    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="63"/>
     </row>
-    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="63"/>
     </row>
-    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="63"/>
     </row>
-    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="63"/>
     </row>
-    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="63"/>
     </row>
-    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="63"/>
     </row>
-    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="63"/>
     </row>
-    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="63"/>
     </row>
-    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="63"/>
     </row>
-    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="63"/>
     </row>
-    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="63"/>
     </row>
-    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="63"/>
     </row>
-    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="63"/>
     </row>
-    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="63"/>
     </row>
-    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="63"/>
     </row>
-    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="63"/>
     </row>
-    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="63"/>
     </row>
-    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="63"/>
     </row>
-    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="63"/>
     </row>
-    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="63"/>
     </row>
-    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="63"/>
     </row>
-    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="63"/>
     </row>
-    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="63"/>
     </row>
-    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="63"/>
     </row>
-    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="63"/>
     </row>
-    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="63"/>
     </row>
-    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="63"/>
     </row>
-    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="63"/>
     </row>
-    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="63"/>
     </row>
-    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="63"/>
     </row>
-    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="63"/>
     </row>
-    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="63"/>
     </row>
-    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="63"/>
     </row>
-    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="63"/>
     </row>
-    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="63"/>
     </row>
-    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="63"/>
     </row>
-    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="63"/>
     </row>
-    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="63"/>
     </row>
-    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="63"/>
     </row>
-    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="63"/>
     </row>
-    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="63"/>
     </row>
-    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="63"/>
     </row>
-    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="63"/>
     </row>
-    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="63"/>
     </row>
-    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="63"/>
     </row>
-    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="63"/>
     </row>
-    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="63"/>
     </row>
-    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="63"/>
     </row>
-    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="63"/>
     </row>
-    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="63"/>
     </row>
-    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="63"/>
     </row>
-    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="63"/>
     </row>
-    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="63"/>
     </row>
-    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="63"/>
     </row>
-    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="63"/>
     </row>
-    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="63"/>
     </row>
-    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="63"/>
     </row>
-    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="63"/>
     </row>
-    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="63"/>
     </row>
-    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="63"/>
     </row>
-    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="63"/>
     </row>
-    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="63"/>
     </row>
-    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="63"/>
     </row>
-    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="63"/>
     </row>
-    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="63"/>
     </row>
-    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="63"/>
     </row>
-    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="63"/>
     </row>
-    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="63"/>
     </row>
-    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="63"/>
     </row>
-    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="63"/>
     </row>
-    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="63"/>
     </row>
-    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="63"/>
     </row>
-    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="63"/>
     </row>
-    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="63"/>
     </row>
-    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="63"/>
     </row>
-    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="63"/>
     </row>
-    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="63"/>
     </row>
-    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="63"/>
     </row>
-    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="63"/>
     </row>
-    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="63"/>
     </row>
-    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="63"/>
     </row>
-    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="63"/>
     </row>
-    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="63"/>
     </row>
-    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="63"/>
     </row>
-    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="63"/>
     </row>
-    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="63"/>
     </row>
-    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="63"/>
     </row>
-    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="63"/>
     </row>
-    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="63"/>
     </row>
-    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="63"/>
     </row>
-    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="63"/>
     </row>
-    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="63"/>
     </row>
-    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="63"/>
     </row>
-    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="63"/>
     </row>
-    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="63"/>
     </row>
-    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="63"/>
     </row>
-    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="63"/>
     </row>
-    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="63"/>
     </row>
-    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="63"/>
     </row>
-    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="63"/>
     </row>
-    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="63"/>
     </row>
-    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="63"/>
     </row>
-    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="63"/>
     </row>
-    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="63"/>
     </row>
-    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="63"/>
     </row>
-    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="63"/>
     </row>
-    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="63"/>
     </row>
-    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="63"/>
     </row>
-    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="63"/>
     </row>
-    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="63"/>
     </row>
-    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="63"/>
     </row>
-    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="63"/>
     </row>
-    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="63"/>
     </row>
-    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="63"/>
     </row>
-    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="63"/>
     </row>
-    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="63"/>
     </row>
-    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="63"/>
     </row>
-    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="63"/>
     </row>
-    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="63"/>
     </row>
-    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="63"/>
     </row>
-    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="63"/>
     </row>
-    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="63"/>
     </row>
-    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="63"/>
     </row>
-    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="63"/>
     </row>
-    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="63"/>
     </row>
-    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="63"/>
     </row>
-    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="63"/>
     </row>
-    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="63"/>
     </row>
-    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="63"/>
     </row>
-    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="63"/>
     </row>
-    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="63"/>
     </row>
-    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="63"/>
     </row>
-    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="63"/>
     </row>
-    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="63"/>
     </row>
-    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="63"/>
     </row>
-    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="63"/>
     </row>
-    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="63"/>
     </row>
-    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="63"/>
     </row>
-    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="63"/>
     </row>
-    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="63"/>
     </row>
-    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="63"/>
     </row>
-    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="63"/>
     </row>
-    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="63"/>
     </row>
-    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="63"/>
     </row>
-    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="63"/>
     </row>
-    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="63"/>
     </row>
-    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="63"/>
     </row>
-    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="63"/>
     </row>
-    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="63"/>
     </row>
-    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="63"/>
     </row>
-    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="63"/>
     </row>
-    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="63"/>
     </row>
-    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="63"/>
     </row>
-    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="63"/>
     </row>
-    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="63"/>
     </row>
-    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="63"/>
     </row>
-    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="63"/>
     </row>
-    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="63"/>
     </row>
-    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="63"/>
     </row>
-    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="63"/>
     </row>
-    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="63"/>
     </row>
-    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="63"/>
     </row>
-    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="63"/>
     </row>
-    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="63"/>
     </row>
-    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="63"/>
     </row>
-    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="63"/>
     </row>
-    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="63"/>
     </row>
-    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="63"/>
     </row>
-    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="63"/>
     </row>
-    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="63"/>
     </row>
-    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="63"/>
     </row>
-    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="63"/>
     </row>
-    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="63"/>
     </row>
-    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="63"/>
     </row>
-    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="63"/>
     </row>
-    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="63"/>
     </row>
-    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="63"/>
     </row>
-    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="63"/>
     </row>
-    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="63"/>
     </row>
-    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="63"/>
     </row>
-    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="63"/>
     </row>
-    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="63"/>
     </row>
-    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="63"/>
     </row>
-    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="63"/>
     </row>
-    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="63"/>
     </row>
-    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="63"/>
     </row>
-    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="63"/>
     </row>
-    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="63"/>
     </row>
-    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="63"/>
     </row>
-    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="63"/>
     </row>
-    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="63"/>
     </row>
-    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="63"/>
     </row>
-    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="63"/>
     </row>
-    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="63"/>
     </row>
-    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="63"/>
     </row>
-    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="63"/>
     </row>
-    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="63"/>
     </row>
-    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="63"/>
     </row>
-    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="63"/>
     </row>
-    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="63"/>
     </row>
-    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="63"/>
     </row>
-    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="63"/>
     </row>
-    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="63"/>
     </row>
-    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="63"/>
     </row>
-    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="63"/>
     </row>
-    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="63"/>
     </row>
-    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="63"/>
     </row>
-    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="63"/>
     </row>
-    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="63"/>
     </row>
-    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="63"/>
     </row>
-    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="63"/>
     </row>
-    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="63"/>
     </row>
-    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="63"/>
     </row>
-    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="63"/>
     </row>
-    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="63"/>
     </row>
-    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="63"/>
     </row>
-    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="63"/>
     </row>
-    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="63"/>
     </row>
-    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="63"/>
     </row>
-    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="63"/>
     </row>
-    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="63"/>
     </row>
-    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="63"/>
     </row>
-    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="63"/>
     </row>
-    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="63"/>
     </row>
-    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="63"/>
     </row>
-    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="63"/>
     </row>
-    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="63"/>
     </row>
-    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="63"/>
     </row>
-    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="63"/>
     </row>
-    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="63"/>
     </row>
-    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="63"/>
     </row>
-    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="63"/>
     </row>
-    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="63"/>
     </row>
-    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="63"/>
     </row>
-    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="63"/>
     </row>
-    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="63"/>
     </row>
-    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="63"/>
     </row>
-    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="63"/>
     </row>
-    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="63"/>
     </row>
-    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="63"/>
     </row>
-    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="63"/>
     </row>
-    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="63"/>
     </row>
-    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="63"/>
     </row>
-    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="63"/>
     </row>
-    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="63"/>
     </row>
-    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="63"/>
     </row>
-    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="63"/>
     </row>
-    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="63"/>
     </row>
-    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="63"/>
     </row>
-    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="63"/>
     </row>
-    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="63"/>
     </row>
-    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="63"/>
     </row>
-    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="63"/>
     </row>
-    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="63"/>
     </row>
-    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="63"/>
     </row>
-    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="63"/>
     </row>
-    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="63"/>
     </row>
-    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="63"/>
     </row>
-    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="63"/>
     </row>
-    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="63"/>
     </row>
-    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="63"/>
     </row>
-    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="63"/>
     </row>
-    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="63"/>
     </row>
-    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="63"/>
     </row>
-    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="63"/>
     </row>
-    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="63"/>
     </row>
-    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="63"/>
     </row>
-    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="63"/>
     </row>
-    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="63"/>
     </row>
-    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="63"/>
     </row>
-    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="63"/>
     </row>
-    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="63"/>
     </row>
-    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="63"/>
     </row>
-    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="63"/>
     </row>
-    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="63"/>
     </row>
-    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="63"/>
     </row>
-    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="63"/>
     </row>
-    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="63"/>
     </row>
-    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="63"/>
     </row>
-    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="63"/>
     </row>
-    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="63"/>
     </row>
-    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="63"/>
     </row>
-    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="63"/>
     </row>
-    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="63"/>
     </row>
-    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="63"/>
     </row>
-    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="63"/>
     </row>
-    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="63"/>
     </row>
-    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="63"/>
     </row>
-    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="63"/>
     </row>
-    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="63"/>
     </row>
-    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="63"/>
     </row>
-    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="63"/>
     </row>
-    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="63"/>
     </row>
-    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="63"/>
     </row>
-    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="63"/>
     </row>
-    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="63"/>
     </row>
-    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="63"/>
     </row>
-    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="63"/>
     </row>
-    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="63"/>
     </row>
-    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="63"/>
     </row>
-    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="63"/>
     </row>
-    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="63"/>
     </row>
-    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="63"/>
     </row>
-    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="63"/>
     </row>
-    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="63"/>
     </row>
-    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="63"/>
     </row>
-    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="63"/>
     </row>
-    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="63"/>
     </row>
-    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="63"/>
     </row>
-    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="63"/>
     </row>
-    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="63"/>
     </row>
-    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="63"/>
     </row>
-    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="63"/>
     </row>
-    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="63"/>
     </row>
-    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="63"/>
     </row>
-    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="63"/>
     </row>
-    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="63"/>
     </row>
-    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="63"/>
     </row>
-    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="63"/>
     </row>
-    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="63"/>
     </row>
-    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="63"/>
     </row>
-    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="63"/>
     </row>
-    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="63"/>
     </row>
-    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="63"/>
     </row>
-    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="63"/>
     </row>
-    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="63"/>
     </row>
-    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="63"/>
     </row>
-    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="63"/>
     </row>
-    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="63"/>
     </row>
-    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="63"/>
     </row>
-    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="63"/>
     </row>
-    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="63"/>
     </row>
-    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="63"/>
     </row>
-    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="63"/>
     </row>
-    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="63"/>
     </row>
-    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="63"/>
     </row>
-    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="63"/>
     </row>
-    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="63"/>
     </row>
-    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="63"/>
     </row>
-    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="63"/>
     </row>
-    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="63"/>
     </row>
-    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="63"/>
     </row>
-    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="63"/>
     </row>
-    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="63"/>
     </row>
-    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="63"/>
     </row>
-    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="63"/>
     </row>
-    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="63"/>
     </row>
-    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="63"/>
     </row>
-    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="63"/>
     </row>
-    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="63"/>
     </row>
-    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="63"/>
     </row>
-    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="63"/>
     </row>
-    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="63"/>
     </row>
-    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="63"/>
     </row>
-    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="63"/>
     </row>
-    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="63"/>
     </row>
-    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="63"/>
     </row>
-    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="63"/>
     </row>
-    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="63"/>
     </row>
-    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="63"/>
     </row>
-    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="63"/>
     </row>
-    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="63"/>
     </row>
-    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="63"/>
     </row>
-    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="63"/>
     </row>
-    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="63"/>
     </row>
-    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="63"/>
     </row>
-    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="63"/>
     </row>
-    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="63"/>
     </row>
-    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="63"/>
     </row>
-    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="63"/>
     </row>
-    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="63"/>
     </row>
-    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="63"/>
     </row>
-    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="63"/>
     </row>
-    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="63"/>
     </row>
-    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="63"/>
     </row>
-    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="63"/>
     </row>
-    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="63"/>
     </row>
-    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="63"/>
     </row>
-    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="63"/>
     </row>
-    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="63"/>
     </row>
-    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="63"/>
     </row>
-    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="63"/>
     </row>
-    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="63"/>
     </row>
-    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="63"/>
     </row>
-    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="63"/>
     </row>
-    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="63"/>
     </row>
-    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="63"/>
     </row>
-    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="63"/>
     </row>
-    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="63"/>
     </row>
-    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="63"/>
     </row>
-    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="63"/>
     </row>
-    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="63"/>
     </row>
-    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="63"/>
     </row>
-    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="63"/>
     </row>
-    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="63"/>
     </row>
-    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="63"/>
     </row>
-    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="63"/>
     </row>
-    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="63"/>
     </row>
-    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="63"/>
     </row>
-    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="63"/>
     </row>
-    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="63"/>
     </row>
-    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="63"/>
     </row>
-    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="63"/>
     </row>
-    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="63"/>
     </row>
-    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="63"/>
     </row>
-    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="63"/>
     </row>
-    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="63"/>
     </row>
-    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="63"/>
     </row>
-    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="63"/>
     </row>
-    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="63"/>
     </row>
-    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="63"/>
     </row>
-    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="63"/>
     </row>
-    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="63"/>
     </row>
-    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="63"/>
     </row>
-    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="63"/>
     </row>
-    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="63"/>
     </row>
-    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="63"/>
     </row>
-    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="63"/>
     </row>
-    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="63"/>
     </row>
-    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="63"/>
     </row>
-    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="63"/>
     </row>
-    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="63"/>
     </row>
-    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="63"/>
     </row>
-    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="63"/>
     </row>
-    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="63"/>
     </row>
-    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="63"/>
     </row>
-    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="63"/>
     </row>
-    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="63"/>
     </row>
-    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="63"/>
     </row>
-    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="63"/>
     </row>
-    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="63"/>
     </row>
-    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="63"/>
     </row>
-    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="63"/>
     </row>
-    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="63"/>
     </row>
-    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="63"/>
     </row>
-    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="63"/>
     </row>
-    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="63"/>
     </row>
-    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="63"/>
     </row>
-    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="63"/>
     </row>
-    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="63"/>
     </row>
-    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="63"/>
     </row>
-    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="63"/>
     </row>
-    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="63"/>
     </row>
-    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="63"/>
     </row>
-    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="63"/>
     </row>
-    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="63"/>
     </row>
-    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="63"/>
     </row>
-    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="63"/>
     </row>
-    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="63"/>
     </row>
-    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="63"/>
     </row>
-    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="63"/>
     </row>
-    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="63"/>
     </row>
-    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="63"/>
     </row>
-    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="63"/>
     </row>
-    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="63"/>
     </row>
-    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="63"/>
     </row>
-    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="63"/>
     </row>
-    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="63"/>
     </row>
-    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="63"/>
     </row>
-    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="63"/>
     </row>
-    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="63"/>
     </row>
-    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="63"/>
     </row>
-    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="63"/>
     </row>
-    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="63"/>
     </row>
-    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="63"/>
     </row>
-    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="63"/>
     </row>
-    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="63"/>
     </row>
-    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="63"/>
     </row>
-    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="63"/>
     </row>
-    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="63"/>
     </row>
-    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="63"/>
     </row>
-    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="63"/>
     </row>
-    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="63"/>
     </row>
-    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="63"/>
     </row>
-    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="63"/>
     </row>
-    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="63"/>
     </row>
-    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="63"/>
     </row>
-    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="63"/>
     </row>
-    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="63"/>
     </row>
-    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="63"/>
     </row>
-    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="63"/>
     </row>
-    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="63"/>
     </row>
-    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="63"/>
     </row>
-    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="63"/>
     </row>
-    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="63"/>
     </row>
-    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="63"/>
     </row>
-    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="63"/>
     </row>
-    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="63"/>
     </row>
-    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="63"/>
     </row>
-    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="63"/>
     </row>
-    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="63"/>
     </row>
-    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="63"/>
     </row>
-    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="63"/>
     </row>
-    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="63"/>
     </row>
-    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="63"/>
     </row>
-    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="63"/>
     </row>
-    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="63"/>
     </row>
-    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="63"/>
     </row>
-    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="63"/>
     </row>
-    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="63"/>
     </row>
-    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="63"/>
     </row>
-    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="63"/>
     </row>
-    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="63"/>
     </row>
-    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="63"/>
     </row>
-    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="63"/>
     </row>
-    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="63"/>
     </row>
-    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="63"/>
     </row>
-    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="63"/>
     </row>
-    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="63"/>
     </row>
-    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="63"/>
     </row>
-    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="63"/>
     </row>
-    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="63"/>
     </row>
-    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="63"/>
     </row>
-    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="63"/>
     </row>
-    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="63"/>
     </row>
-    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="63"/>
     </row>
-    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="63"/>
     </row>
-    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="63"/>
     </row>
-    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="63"/>
     </row>
-    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="63"/>
     </row>
-    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="63"/>
     </row>
-    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="63"/>
     </row>
-    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="63"/>
     </row>
-    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="63"/>
     </row>
-    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="63"/>
     </row>
-    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="63"/>
     </row>
-    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="63"/>
     </row>
-    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="63"/>
     </row>
-    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="63"/>
     </row>
-    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="63"/>
     </row>
-    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="63"/>
     </row>
-    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="63"/>
     </row>
-    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="63"/>
     </row>
-    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="63"/>
     </row>
-    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="63"/>
     </row>
-    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="63"/>
     </row>
-    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="63"/>
     </row>
-    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="63"/>
     </row>
-    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="63"/>
     </row>
-    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="63"/>
     </row>
-    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="63"/>
     </row>
-    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="63"/>
     </row>
-    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="63"/>
     </row>
-    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="63"/>
     </row>
-    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="63"/>
     </row>
-    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="63"/>
     </row>
-    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="63"/>
     </row>
-    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="63"/>
     </row>
-    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="63"/>
     </row>
-    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="63"/>
     </row>
-    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="63"/>
     </row>
-    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="63"/>
     </row>
-    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="63"/>
     </row>
-    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="63"/>
     </row>
-    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="63"/>
     </row>
-    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="63"/>
     </row>
-    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="63"/>
     </row>
-    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="63"/>
     </row>
-    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="63"/>
     </row>
-    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="63"/>
     </row>
-    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="63"/>
     </row>
-    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="63"/>
     </row>
-    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="63"/>
     </row>
-    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="63"/>
     </row>
-    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="63"/>
     </row>
-    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="63"/>
     </row>
-    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="63"/>
     </row>
-    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="63"/>
     </row>
-    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="63"/>
     </row>
-    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="63"/>
     </row>
-    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="63"/>
     </row>
-    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="63"/>
     </row>
-    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="63"/>
     </row>
-    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="63"/>
     </row>
-    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="63"/>
     </row>
-    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="63"/>
     </row>
-    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="63"/>
     </row>
-    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="63"/>
     </row>
-    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="63"/>
     </row>
-    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="63"/>
     </row>
-    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="63"/>
     </row>
-    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="63"/>
     </row>
-    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="63"/>
     </row>
-    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="63"/>
     </row>
-    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="63"/>
     </row>
-    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="63"/>
     </row>
-    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="63"/>
     </row>
-    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="63"/>
     </row>
-    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="63"/>
     </row>
-    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="63"/>
     </row>
-    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="63"/>
     </row>
-    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="63"/>
     </row>
-    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="63"/>
     </row>
-    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="63"/>
     </row>
-    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="63"/>
     </row>
-    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="63"/>
     </row>
-    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="63"/>
     </row>
-    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="63"/>
     </row>
-    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="63"/>
     </row>
-    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="63"/>
     </row>
-    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="63"/>
     </row>
-    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="63"/>
     </row>
-    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="63"/>
     </row>
-    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="63"/>
     </row>
-    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="63"/>
     </row>
-    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="63"/>
     </row>
-    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="63"/>
     </row>
-    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="63"/>
     </row>
-    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="63"/>
     </row>
-    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="63"/>
     </row>
-    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="63"/>
     </row>
-    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="63"/>
     </row>
-    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="63"/>
     </row>
-    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="63"/>
     </row>
-    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="63"/>
     </row>
-    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="63"/>
     </row>
-    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="63"/>
     </row>
-    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="63"/>
     </row>
-    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="63"/>
     </row>
-    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="63"/>
     </row>
-    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="63"/>
     </row>
-    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="63"/>
     </row>
-    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="63"/>
     </row>
-    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="63"/>
     </row>
-    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="63"/>
     </row>
-    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="63"/>
     </row>
-    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="63"/>
     </row>
-    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="63"/>
     </row>
-    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="63"/>
     </row>
-    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="63"/>
     </row>
-    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="63"/>
     </row>
-    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="63"/>
     </row>
-    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="63"/>
     </row>
-    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="63"/>
     </row>
-    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="63"/>
     </row>
-    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="63"/>
     </row>
-    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="63"/>
     </row>
-    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="63"/>
     </row>
-    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="63"/>
     </row>
-    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="63"/>
     </row>
-    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="63"/>
     </row>
-    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="63"/>
     </row>
-    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="63"/>
     </row>
-    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="63"/>
     </row>
-    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="63"/>
     </row>
-    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="63"/>
     </row>
-    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="63"/>
     </row>
-    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="63"/>
     </row>
-    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="63"/>
     </row>
-    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="63"/>
     </row>
-    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="63"/>
     </row>
-    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="63"/>
     </row>
-    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="63"/>
     </row>
-    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="63"/>
     </row>
-    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="63"/>
     </row>
-    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="63"/>
     </row>
-    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="63"/>
     </row>
-    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="63"/>
     </row>
-    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="63"/>
     </row>
-    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="63"/>
     </row>
-    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="63"/>
     </row>
-    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="63"/>
     </row>
-    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="63"/>
     </row>
-    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="63"/>
     </row>
-    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="63"/>
     </row>
-    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="63"/>
     </row>
-    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="63"/>
     </row>
-    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="63"/>
     </row>
-    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="63"/>
     </row>
-    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="63"/>
     </row>
-    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="63"/>
     </row>
-    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="63"/>
     </row>
-    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="63"/>
     </row>
-    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="63"/>
     </row>
-    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="63"/>
     </row>
-    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="63"/>
     </row>
-    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="63"/>
     </row>
-    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="63"/>
     </row>
-    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="63"/>
     </row>
-    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="63"/>
     </row>
-    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="63"/>
     </row>
-    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="63"/>
     </row>
-    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="63"/>
     </row>
-    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="63"/>
     </row>
-    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="63"/>
     </row>
-    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="63"/>
     </row>
-    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="63"/>
     </row>
-    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="63"/>
     </row>
-    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="63"/>
     </row>
-    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="63"/>
     </row>
-    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="63"/>
     </row>
-    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="63"/>
     </row>
-    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="63"/>
     </row>
-    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="63"/>
     </row>
-    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="63"/>
     </row>
-    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="63"/>
     </row>
-    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="63"/>
     </row>
-    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="63"/>
     </row>
-    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="63"/>
     </row>
-    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="63"/>
     </row>
-    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="63"/>
     </row>
-    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="63"/>
     </row>
-    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="63"/>
     </row>
-    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="63"/>
     </row>
-    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="63"/>
     </row>
-    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="63"/>
     </row>
-    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="63"/>
     </row>
-    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="63"/>
     </row>
-    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="63"/>
     </row>
-    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="63"/>
     </row>
-    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="63"/>
     </row>
-    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="63"/>
     </row>
-    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="63"/>
     </row>
-    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="63"/>
     </row>
-    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="63"/>
     </row>
-    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="63"/>
     </row>
-    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="63"/>
     </row>
-    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="63"/>
     </row>
-    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="63"/>
     </row>
-    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="63"/>
     </row>
-    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="63"/>
     </row>
-    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="63"/>
     </row>
-    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="63"/>
     </row>
-    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="63"/>
     </row>
-    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="63"/>
     </row>
-    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="63"/>
     </row>
-    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="63"/>
     </row>
-    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="63"/>
     </row>
   </sheetData>
